--- a/Aula  13-11.xlsx
+++ b/Aula  13-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71338739409\Desktop\Excel Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F510FA-4D8B-4B2A-A4DC-3B99F506E96A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F615D76-30FE-4BD8-9057-D98FB8E21E6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="1380" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="5" xr2:uid="{1FA730CC-3C57-4406-A0E6-2A7623A73B36}"/>
+    <workbookView xWindow="30195" yWindow="1380" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="4" xr2:uid="{1FA730CC-3C57-4406-A0E6-2A7623A73B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções de texto" sheetId="1" r:id="rId1"/>
@@ -999,7 +999,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,13 +1078,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1104,6 +1097,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,18 +1121,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,6 +1129,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4570,20 +4569,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="38" t="str">
         <f>TRIM("Pagamento             dos          Funcionários        do       Prédio    Al. Rio Negro")</f>
         <v>Pagamento dos Funcionários do Prédio Al. Rio Negro</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
@@ -4827,16 +4826,16 @@
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4860,11 +4859,11 @@
       <c r="D3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="10" t="s">
         <v>51</v>
       </c>
@@ -4872,13 +4871,13 @@
         <v>52</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -4912,14 +4911,14 @@
         <v>58</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="45" t="str">
+      <c r="K4" s="42" t="str">
         <f t="shared" ref="K4:K9" si="0">_xlfn.CONCAT(B4," ",C4," ",D4,)</f>
         <v>Eduardo Yoshio Yto</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -4955,14 +4954,14 @@
       <c r="J5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="45" t="str">
+      <c r="K5" s="42" t="str">
         <f t="shared" si="0"/>
         <v>Luzinete Bezerra Lima</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -4996,14 +4995,14 @@
         <v>63</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="45" t="str">
+      <c r="K6" s="42" t="str">
         <f t="shared" si="0"/>
         <v>Camila Patrícia Dias</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -5037,14 +5036,14 @@
         <v>63</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="45" t="str">
+      <c r="K7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>Cláudio Ricardo Nunes</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -5078,14 +5077,14 @@
         <v>76</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="45" t="str">
+      <c r="K8" s="42" t="str">
         <f t="shared" si="0"/>
         <v>Maria Amélia Sousa</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -5119,14 +5118,14 @@
         <v>63</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="45" t="str">
+      <c r="K9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>Victor Hugo Marques</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -5179,46 +5178,46 @@
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="52" t="str">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45" t="str">
         <f>_xlfn.CONCAT(B4," ",C5," ",D7," ",G8," ",I9,)</f>
         <v>Eduardo Bezerra Nunes 2010 SP</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -5445,17 +5444,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="E12:I13"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="E12:I13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5468,12 +5467,12 @@
   <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
@@ -5495,11 +5494,11 @@
       <c r="B5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
@@ -5569,34 +5568,36 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36" t="str">
+      <c r="E14" s="54" t="str">
         <f>_xlfn.TEXTJOIN(" ",FALSE,E6:G8)</f>
         <v>Exemplo de como o Excel trabalha unindo as matrizes</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38" t="str">
+      <c r="A16" s="55" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,B4:B13)</f>
         <v>Estamos juntando todas estas células com o método desta aula</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E14:G15"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5608,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3E1321-F3DE-419D-A8BD-F2DA45021218}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5826,7 +5827,7 @@
   </sheetPr>
   <dimension ref="A3:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -5896,7 +5897,7 @@
       <c r="H4" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="40" t="str">
+      <c r="I4" s="37" t="str">
         <f>LOWER(_xlfn.CONCAT(email_colaboradores[[#This Row],[Arrumar Nome]],".",email_colaboradores[[#This Row],[Arrumar Sobrenome]],"@",email_colaboradores[[#This Row],[Extensão para novo e-mail]],))</f>
         <v>ana.nunes@contoso.net.br</v>
       </c>
